--- a/data/pca/factorExposure/factorExposure_2011-09-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,24 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +723,60 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.01616733375965676</v>
+        <v>-0.01605133084546376</v>
       </c>
       <c r="C2">
-        <v>0.03508756768939532</v>
+        <v>-0.001758983192391051</v>
       </c>
       <c r="D2">
-        <v>-0.01858654881896098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03356866488836655</v>
+      </c>
+      <c r="E2">
+        <v>0.01669278685647145</v>
+      </c>
+      <c r="F2">
+        <v>-0.03585786816136861</v>
+      </c>
+      <c r="G2">
+        <v>0.01878240106767569</v>
+      </c>
+      <c r="H2">
+        <v>0.0009199903185134161</v>
+      </c>
+      <c r="I2">
+        <v>0.01046881918013788</v>
+      </c>
+      <c r="J2">
+        <v>-0.05701503309931655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +787,60 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.07997922849202978</v>
+        <v>-0.09493363283778916</v>
       </c>
       <c r="C4">
-        <v>0.05784556430954982</v>
+        <v>-0.04394452540084253</v>
       </c>
       <c r="D4">
-        <v>-0.07245126218690258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06952979832293595</v>
+      </c>
+      <c r="E4">
+        <v>-0.01715793419787947</v>
+      </c>
+      <c r="F4">
+        <v>-0.06924310947154351</v>
+      </c>
+      <c r="G4">
+        <v>-0.0248982479467287</v>
+      </c>
+      <c r="H4">
+        <v>-0.01860928579371759</v>
+      </c>
+      <c r="I4">
+        <v>-0.07770737342503824</v>
+      </c>
+      <c r="J4">
+        <v>0.04526588396682833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +851,380 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1154982000452709</v>
+        <v>-0.1300906418260571</v>
       </c>
       <c r="C6">
-        <v>0.0444547940593314</v>
+        <v>-0.001273138232353123</v>
       </c>
       <c r="D6">
-        <v>-0.01210350846953535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.036998015799457</v>
+      </c>
+      <c r="E6">
+        <v>0.03127621082239749</v>
+      </c>
+      <c r="F6">
+        <v>-0.02771331123182002</v>
+      </c>
+      <c r="G6">
+        <v>-0.03029542003134053</v>
+      </c>
+      <c r="H6">
+        <v>0.1934580715871168</v>
+      </c>
+      <c r="I6">
+        <v>0.03601005864896299</v>
+      </c>
+      <c r="J6">
+        <v>0.4370125117732383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.06877584306050195</v>
+        <v>-0.07060816697787262</v>
       </c>
       <c r="C7">
-        <v>0.04868093073062491</v>
+        <v>-0.04172573649715857</v>
       </c>
       <c r="D7">
-        <v>-0.03500613932800592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05177032599174877</v>
+      </c>
+      <c r="E7">
+        <v>0.01514090804875924</v>
+      </c>
+      <c r="F7">
+        <v>-0.05015154597512365</v>
+      </c>
+      <c r="G7">
+        <v>0.01090928827817043</v>
+      </c>
+      <c r="H7">
+        <v>-0.01712507492450304</v>
+      </c>
+      <c r="I7">
+        <v>-0.04748661268665073</v>
+      </c>
+      <c r="J7">
+        <v>-0.05624302681882182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.0399784100578093</v>
+        <v>-0.04157756634239095</v>
       </c>
       <c r="C8">
-        <v>0.000774535334904498</v>
+        <v>-0.02826241896850103</v>
       </c>
       <c r="D8">
-        <v>-0.06285847116851299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01151104482800541</v>
+      </c>
+      <c r="E8">
+        <v>-0.007049417358249467</v>
+      </c>
+      <c r="F8">
+        <v>-0.0800928693620238</v>
+      </c>
+      <c r="G8">
+        <v>-0.04833228539226361</v>
+      </c>
+      <c r="H8">
+        <v>0.02427989225794243</v>
+      </c>
+      <c r="I8">
+        <v>-0.1091563448038218</v>
+      </c>
+      <c r="J8">
+        <v>0.03091804879898413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.0733452116387108</v>
+        <v>-0.08387670186606869</v>
       </c>
       <c r="C9">
-        <v>0.04409571936366119</v>
+        <v>-0.04569514197572605</v>
       </c>
       <c r="D9">
-        <v>-0.07566549365045859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.05737976451169727</v>
+      </c>
+      <c r="E9">
+        <v>-0.01113621314138692</v>
+      </c>
+      <c r="F9">
+        <v>-0.05474606239094213</v>
+      </c>
+      <c r="G9">
+        <v>-0.04303030303267474</v>
+      </c>
+      <c r="H9">
+        <v>-0.01686060609088627</v>
+      </c>
+      <c r="I9">
+        <v>-0.07922481407698538</v>
+      </c>
+      <c r="J9">
+        <v>0.04529716211302014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.02430896420367243</v>
+        <v>-0.06378117126881085</v>
       </c>
       <c r="C10">
-        <v>0.02769722350717917</v>
+        <v>0.1963381759776333</v>
       </c>
       <c r="D10">
-        <v>0.1739595827527215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.02603673562409862</v>
+      </c>
+      <c r="E10">
+        <v>0.01401964456201468</v>
+      </c>
+      <c r="F10">
+        <v>-0.05304255187993307</v>
+      </c>
+      <c r="G10">
+        <v>0.03966573182320511</v>
+      </c>
+      <c r="H10">
+        <v>0.02765719447344629</v>
+      </c>
+      <c r="I10">
+        <v>0.06029514203114469</v>
+      </c>
+      <c r="J10">
+        <v>-0.01397902452739286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07077403948358515</v>
+        <v>-0.07534058770738949</v>
       </c>
       <c r="C11">
-        <v>0.03538077527780154</v>
+        <v>-0.04923741753854646</v>
       </c>
       <c r="D11">
-        <v>-0.06417582557033007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0453123743671032</v>
+      </c>
+      <c r="E11">
+        <v>0.01615110725902503</v>
+      </c>
+      <c r="F11">
+        <v>-0.03397408752597559</v>
+      </c>
+      <c r="G11">
+        <v>-0.06268500023320542</v>
+      </c>
+      <c r="H11">
+        <v>-0.03156591618712191</v>
+      </c>
+      <c r="I11">
+        <v>-0.06750011941040632</v>
+      </c>
+      <c r="J11">
+        <v>-0.01744187741981545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.06762114947274976</v>
+        <v>-0.07255228774890554</v>
       </c>
       <c r="C12">
-        <v>0.0452862838957042</v>
+        <v>-0.03673515562051467</v>
       </c>
       <c r="D12">
-        <v>-0.04994069620597288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04809324710983949</v>
+      </c>
+      <c r="E12">
+        <v>0.0002103252744930767</v>
+      </c>
+      <c r="F12">
+        <v>-0.02845558310200712</v>
+      </c>
+      <c r="G12">
+        <v>-0.03429430951426112</v>
+      </c>
+      <c r="H12">
+        <v>-0.00316052257658311</v>
+      </c>
+      <c r="I12">
+        <v>-0.09092608054348104</v>
+      </c>
+      <c r="J12">
+        <v>-0.0227387969256442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.07193667955950871</v>
+        <v>-0.06708855795193913</v>
       </c>
       <c r="C13">
-        <v>0.04795480360692219</v>
+        <v>-0.03175706593589203</v>
       </c>
       <c r="D13">
-        <v>-0.05800919270884867</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04396048589093843</v>
+      </c>
+      <c r="E13">
+        <v>-0.03448671735011225</v>
+      </c>
+      <c r="F13">
+        <v>-0.03830603580080608</v>
+      </c>
+      <c r="G13">
+        <v>-0.02152694099755951</v>
+      </c>
+      <c r="H13">
+        <v>-0.02291157779759927</v>
+      </c>
+      <c r="I13">
+        <v>-0.09741746436691895</v>
+      </c>
+      <c r="J13">
+        <v>-0.04333330065325329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.02950675541559108</v>
+        <v>-0.04112896875458633</v>
       </c>
       <c r="C14">
-        <v>0.02659268215768362</v>
+        <v>-0.004067284959562682</v>
       </c>
       <c r="D14">
-        <v>-0.008299162848830739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03157610200574933</v>
+      </c>
+      <c r="E14">
+        <v>-0.003460132294498826</v>
+      </c>
+      <c r="F14">
+        <v>-0.02077967504906181</v>
+      </c>
+      <c r="G14">
+        <v>-0.04008726678896062</v>
+      </c>
+      <c r="H14">
+        <v>-0.05727716681850895</v>
+      </c>
+      <c r="I14">
+        <v>-0.0531784177229664</v>
+      </c>
+      <c r="J14">
+        <v>0.04204357225235998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.05157553713838942</v>
+        <v>-0.04387449279378231</v>
       </c>
       <c r="C15">
-        <v>0.008907358366731599</v>
+        <v>-0.01742089280801325</v>
       </c>
       <c r="D15">
-        <v>-0.02378784549211026</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.005772057086006839</v>
+      </c>
+      <c r="E15">
+        <v>-0.03959661457848759</v>
+      </c>
+      <c r="F15">
+        <v>-0.02007570267412875</v>
+      </c>
+      <c r="G15">
+        <v>-0.02888029666662828</v>
+      </c>
+      <c r="H15">
+        <v>-0.01717321651208273</v>
+      </c>
+      <c r="I15">
+        <v>-0.02694497914905758</v>
+      </c>
+      <c r="J15">
+        <v>0.02534006823930237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.06178474284251171</v>
+        <v>-0.07395309811665862</v>
       </c>
       <c r="C16">
-        <v>0.03725950679155064</v>
+        <v>-0.04819405984534211</v>
       </c>
       <c r="D16">
-        <v>-0.06388332837171039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05181328573047309</v>
+      </c>
+      <c r="E16">
+        <v>0.00121296444110891</v>
+      </c>
+      <c r="F16">
+        <v>-0.03408180814597126</v>
+      </c>
+      <c r="G16">
+        <v>-0.03391274355218703</v>
+      </c>
+      <c r="H16">
+        <v>-0.02161808305216073</v>
+      </c>
+      <c r="I16">
+        <v>-0.04340767754992174</v>
+      </c>
+      <c r="J16">
+        <v>-0.0122113325055866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1235,28 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1267,28 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1299,252 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.06489399569391466</v>
+        <v>-0.06288317100096567</v>
       </c>
       <c r="C20">
-        <v>0.02316978816930954</v>
+        <v>-0.03641221334284573</v>
       </c>
       <c r="D20">
-        <v>-0.0553235619897001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02624148734220421</v>
+      </c>
+      <c r="E20">
+        <v>0.005508880974355728</v>
+      </c>
+      <c r="F20">
+        <v>-0.029991414595831</v>
+      </c>
+      <c r="G20">
+        <v>-0.02755385465606909</v>
+      </c>
+      <c r="H20">
+        <v>-0.03853626048287775</v>
+      </c>
+      <c r="I20">
+        <v>-0.1094736902985413</v>
+      </c>
+      <c r="J20">
+        <v>-0.004514792324505291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03686637016362521</v>
+        <v>-0.0317963052146742</v>
       </c>
       <c r="C21">
-        <v>0.007647815430085255</v>
+        <v>-0.01918533356039759</v>
       </c>
       <c r="D21">
-        <v>-0.01471023760705424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.007514411960678332</v>
+      </c>
+      <c r="E21">
+        <v>-0.03146471644095693</v>
+      </c>
+      <c r="F21">
+        <v>-0.005410708868796757</v>
+      </c>
+      <c r="G21">
+        <v>0.0006744673023225069</v>
+      </c>
+      <c r="H21">
+        <v>0.06487928589260757</v>
+      </c>
+      <c r="I21">
+        <v>-0.02839315886344373</v>
+      </c>
+      <c r="J21">
+        <v>0.01244525186126698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.1007573729607922</v>
+        <v>-0.08857406078916864</v>
       </c>
       <c r="C22">
-        <v>0.0322942415219713</v>
+        <v>-0.06023257726969235</v>
       </c>
       <c r="D22">
-        <v>-0.1094337951068311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02758272763981037</v>
+      </c>
+      <c r="E22">
+        <v>-0.472198038383924</v>
+      </c>
+      <c r="F22">
+        <v>-0.2713736808403609</v>
+      </c>
+      <c r="G22">
+        <v>0.3154712433603993</v>
+      </c>
+      <c r="H22">
+        <v>0.05950191244960076</v>
+      </c>
+      <c r="I22">
+        <v>0.2221959919409817</v>
+      </c>
+      <c r="J22">
+        <v>-0.04892859826425996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.1015841507564311</v>
+        <v>-0.08947480454297876</v>
       </c>
       <c r="C23">
-        <v>0.03327793675760071</v>
+        <v>-0.06055826592139014</v>
       </c>
       <c r="D23">
-        <v>-0.1095549113358495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02876938658100264</v>
+      </c>
+      <c r="E23">
+        <v>-0.4746807076407808</v>
+      </c>
+      <c r="F23">
+        <v>-0.2745207368890547</v>
+      </c>
+      <c r="G23">
+        <v>0.3102109328820077</v>
+      </c>
+      <c r="H23">
+        <v>0.05909834043680275</v>
+      </c>
+      <c r="I23">
+        <v>0.2251576282086909</v>
+      </c>
+      <c r="J23">
+        <v>-0.04344534846989859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.07912869689225778</v>
+        <v>-0.08302514078594295</v>
       </c>
       <c r="C24">
-        <v>0.0426968871622506</v>
+        <v>-0.04628745856705784</v>
       </c>
       <c r="D24">
-        <v>-0.06510872418324969</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05029732741499122</v>
+      </c>
+      <c r="E24">
+        <v>0.0007425939620179903</v>
+      </c>
+      <c r="F24">
+        <v>-0.04444095700439343</v>
+      </c>
+      <c r="G24">
+        <v>-0.05131685836483717</v>
+      </c>
+      <c r="H24">
+        <v>-0.006232035768621101</v>
+      </c>
+      <c r="I24">
+        <v>-0.05935544373865322</v>
+      </c>
+      <c r="J24">
+        <v>-0.002049773966545728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07649307917456147</v>
+        <v>-0.07761975280114032</v>
       </c>
       <c r="C25">
-        <v>0.04938483209591777</v>
+        <v>-0.03946766793913739</v>
       </c>
       <c r="D25">
-        <v>-0.06494995505129564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05414694533815517</v>
+      </c>
+      <c r="E25">
+        <v>-0.00552766445377084</v>
+      </c>
+      <c r="F25">
+        <v>-0.03975311584386151</v>
+      </c>
+      <c r="G25">
+        <v>-0.05093690299789636</v>
+      </c>
+      <c r="H25">
+        <v>-0.01584201934780999</v>
+      </c>
+      <c r="I25">
+        <v>-0.07585416383308222</v>
+      </c>
+      <c r="J25">
+        <v>-0.0004995446259302704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.04929078170146561</v>
+        <v>-0.04618255630139486</v>
       </c>
       <c r="C26">
-        <v>0.004260571752654831</v>
+        <v>-0.02245674023891197</v>
       </c>
       <c r="D26">
-        <v>-0.0169785382405654</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-9.26741527776577e-05</v>
+      </c>
+      <c r="E26">
+        <v>-0.02101946101188233</v>
+      </c>
+      <c r="F26">
+        <v>-0.03247350420547881</v>
+      </c>
+      <c r="G26">
+        <v>-0.025302352575243</v>
+      </c>
+      <c r="H26">
+        <v>-0.03182318376766944</v>
+      </c>
+      <c r="I26">
+        <v>-0.01089723957601002</v>
+      </c>
+      <c r="J26">
+        <v>-0.0005038510642490329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1555,316 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.04225193846909792</v>
+        <v>-0.07707856594789407</v>
       </c>
       <c r="C28">
-        <v>0.06485960437707468</v>
+        <v>0.2932765040138297</v>
       </c>
       <c r="D28">
-        <v>0.2825092073296577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.03883544318785988</v>
+      </c>
+      <c r="E28">
+        <v>-0.001054293510827219</v>
+      </c>
+      <c r="F28">
+        <v>-0.04090898101213034</v>
+      </c>
+      <c r="G28">
+        <v>-0.02812546474122638</v>
+      </c>
+      <c r="H28">
+        <v>0.04315853889665394</v>
+      </c>
+      <c r="I28">
+        <v>0.02335519201689884</v>
+      </c>
+      <c r="J28">
+        <v>-0.01853006209221943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.05089940532057632</v>
+        <v>-0.05341692887174575</v>
       </c>
       <c r="C29">
-        <v>0.04282942549402986</v>
+        <v>-0.002152021497725394</v>
       </c>
       <c r="D29">
-        <v>-0.004514426681173494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03754373274247837</v>
+      </c>
+      <c r="E29">
+        <v>-0.009834310668987253</v>
+      </c>
+      <c r="F29">
+        <v>-0.03598302900442748</v>
+      </c>
+      <c r="G29">
+        <v>-0.03072349702765127</v>
+      </c>
+      <c r="H29">
+        <v>-0.0727910833166054</v>
+      </c>
+      <c r="I29">
+        <v>-0.03958994127370524</v>
+      </c>
+      <c r="J29">
+        <v>0.01374186332375755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1424600960762601</v>
+        <v>-0.1298653277549383</v>
       </c>
       <c r="C30">
-        <v>0.07715559184621074</v>
+        <v>-0.0452320798852827</v>
       </c>
       <c r="D30">
-        <v>-0.0931655362568735</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07309615250851154</v>
+      </c>
+      <c r="E30">
+        <v>-0.04653815270462879</v>
+      </c>
+      <c r="F30">
+        <v>-0.09959300660012564</v>
+      </c>
+      <c r="G30">
+        <v>-0.04339397933630033</v>
+      </c>
+      <c r="H30">
+        <v>0.04706260524866356</v>
+      </c>
+      <c r="I30">
+        <v>-0.3430334732713715</v>
+      </c>
+      <c r="J30">
+        <v>-0.07329558446889965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05129728517195857</v>
+        <v>-0.04616710965167815</v>
       </c>
       <c r="C31">
-        <v>0.02700120761825351</v>
+        <v>-0.03135061517075502</v>
       </c>
       <c r="D31">
-        <v>-0.02427986709624292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02627517245473835</v>
+      </c>
+      <c r="E31">
+        <v>-0.01339301308601385</v>
+      </c>
+      <c r="F31">
+        <v>-0.01223258958103391</v>
+      </c>
+      <c r="G31">
+        <v>-0.007040713066011656</v>
+      </c>
+      <c r="H31">
+        <v>-0.05950241448526161</v>
+      </c>
+      <c r="I31">
+        <v>-0.02837859443218153</v>
+      </c>
+      <c r="J31">
+        <v>0.0241186130166123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.04963692978100636</v>
+        <v>-0.05034437751529729</v>
       </c>
       <c r="C32">
-        <v>0.01399468910296842</v>
+        <v>-0.0009354051847908477</v>
       </c>
       <c r="D32">
-        <v>-0.02554971121477436</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.009886037889650961</v>
+      </c>
+      <c r="E32">
+        <v>-0.07731697284963875</v>
+      </c>
+      <c r="F32">
+        <v>-0.03787592311429161</v>
+      </c>
+      <c r="G32">
+        <v>-0.006409413697284345</v>
+      </c>
+      <c r="H32">
+        <v>-0.002112342672135256</v>
+      </c>
+      <c r="I32">
+        <v>0.003967129608961351</v>
+      </c>
+      <c r="J32">
+        <v>-0.06820120875315816</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.09759306846856264</v>
+        <v>-0.1004257029828878</v>
       </c>
       <c r="C33">
-        <v>0.04143631512920939</v>
+        <v>-0.04275850539209967</v>
       </c>
       <c r="D33">
-        <v>-0.04734905356743242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.03890337801147606</v>
+      </c>
+      <c r="E33">
+        <v>-0.02197464695352421</v>
+      </c>
+      <c r="F33">
+        <v>-0.01517092836987503</v>
+      </c>
+      <c r="G33">
+        <v>-0.01475851192726465</v>
+      </c>
+      <c r="H33">
+        <v>-0.04552659792263032</v>
+      </c>
+      <c r="I33">
+        <v>-0.07131814039652096</v>
+      </c>
+      <c r="J33">
+        <v>0.01947258364900905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06274075332739633</v>
+        <v>-0.07020771290119371</v>
       </c>
       <c r="C34">
-        <v>0.02130897700402351</v>
+        <v>-0.04251436966988068</v>
       </c>
       <c r="D34">
-        <v>-0.0615101583374979</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03209955669844335</v>
+      </c>
+      <c r="E34">
+        <v>-0.0008788670331697935</v>
+      </c>
+      <c r="F34">
+        <v>-0.02569500021527563</v>
+      </c>
+      <c r="G34">
+        <v>-0.03631488131480533</v>
+      </c>
+      <c r="H34">
+        <v>-0.02591724307317963</v>
+      </c>
+      <c r="I34">
+        <v>-0.04819736953719964</v>
+      </c>
+      <c r="J34">
+        <v>0.01351750768455691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.03819571011206248</v>
+        <v>-0.03680133450795104</v>
       </c>
       <c r="C35">
-        <v>0.01407067046190072</v>
+        <v>-0.01541856722134013</v>
       </c>
       <c r="D35">
-        <v>-0.01722253887862554</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01594346022409227</v>
+      </c>
+      <c r="E35">
+        <v>-0.0154776631274086</v>
+      </c>
+      <c r="F35">
+        <v>0.008097638842674162</v>
+      </c>
+      <c r="G35">
+        <v>-0.01018354742703637</v>
+      </c>
+      <c r="H35">
+        <v>-0.02305021332897716</v>
+      </c>
+      <c r="I35">
+        <v>-0.0496979367571301</v>
+      </c>
+      <c r="J35">
+        <v>-0.002165358242278531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03454742525227933</v>
+        <v>-0.03290132348418563</v>
       </c>
       <c r="C36">
-        <v>0.01338649718773626</v>
+        <v>-0.01447691668123985</v>
       </c>
       <c r="D36">
-        <v>-0.02252213599080588</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01324735894408249</v>
+      </c>
+      <c r="E36">
+        <v>-0.01578255003068548</v>
+      </c>
+      <c r="F36">
+        <v>-0.04186343154570094</v>
+      </c>
+      <c r="G36">
+        <v>-0.02348313194537665</v>
+      </c>
+      <c r="H36">
+        <v>-0.02568960711884376</v>
+      </c>
+      <c r="I36">
+        <v>-0.06373009505549314</v>
+      </c>
+      <c r="J36">
+        <v>0.007648999851432504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1875,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.06420806990666504</v>
+        <v>-0.05514474092425267</v>
       </c>
       <c r="C38">
-        <v>0.002496560158558828</v>
+        <v>-0.02546083749569024</v>
       </c>
       <c r="D38">
-        <v>0.0003708069722896525</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.005953877848553485</v>
+      </c>
+      <c r="E38">
+        <v>-0.01912968280125327</v>
+      </c>
+      <c r="F38">
+        <v>-0.01235086137045492</v>
+      </c>
+      <c r="G38">
+        <v>0.001140590727795951</v>
+      </c>
+      <c r="H38">
+        <v>-0.02236113234743181</v>
+      </c>
+      <c r="I38">
+        <v>0.01036345297507488</v>
+      </c>
+      <c r="J38">
+        <v>-0.03733781596332712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.0866558457461527</v>
+        <v>-0.09623057615616976</v>
       </c>
       <c r="C39">
-        <v>0.05280504033286943</v>
+        <v>-0.03619299964852214</v>
       </c>
       <c r="D39">
-        <v>-0.05039386070416717</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05927795315700322</v>
+      </c>
+      <c r="E39">
+        <v>-0.007449088960191623</v>
+      </c>
+      <c r="F39">
+        <v>-0.03133470313509645</v>
+      </c>
+      <c r="G39">
+        <v>-0.03745157614052325</v>
+      </c>
+      <c r="H39">
+        <v>-0.009112090592884432</v>
+      </c>
+      <c r="I39">
+        <v>-0.07893388014337929</v>
+      </c>
+      <c r="J39">
+        <v>-0.1155922458304792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07302144445250248</v>
+        <v>-0.05188278574649692</v>
       </c>
       <c r="C40">
-        <v>0.02009339512589711</v>
+        <v>-0.03983654690569734</v>
       </c>
       <c r="D40">
-        <v>-0.02077030008519978</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.004923316788593776</v>
+      </c>
+      <c r="E40">
+        <v>-0.06643738255633885</v>
+      </c>
+      <c r="F40">
+        <v>-0.0256775864506884</v>
+      </c>
+      <c r="G40">
+        <v>-0.04555607712061976</v>
+      </c>
+      <c r="H40">
+        <v>0.06517701509843227</v>
+      </c>
+      <c r="I40">
+        <v>-0.2224824426953844</v>
+      </c>
+      <c r="J40">
+        <v>-0.2036630141019569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.05860189725029061</v>
+        <v>-0.04885365149803508</v>
       </c>
       <c r="C41">
-        <v>0.007538127549441064</v>
+        <v>-0.03795356880714968</v>
       </c>
       <c r="D41">
-        <v>-0.03334436760855841</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006198131653286019</v>
+      </c>
+      <c r="E41">
+        <v>0.002465111304544027</v>
+      </c>
+      <c r="F41">
+        <v>0.01652738521789933</v>
+      </c>
+      <c r="G41">
+        <v>-0.02761947377569858</v>
+      </c>
+      <c r="H41">
+        <v>-0.03356446906658132</v>
+      </c>
+      <c r="I41">
+        <v>-0.031213551160496</v>
+      </c>
+      <c r="J41">
+        <v>-0.04392233744884486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +2035,92 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.06010417299881</v>
+        <v>-0.06209055724562287</v>
       </c>
       <c r="C43">
-        <v>0.02431055154616531</v>
+        <v>-0.02990066749038014</v>
       </c>
       <c r="D43">
-        <v>-0.01645330476459279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02380031845559394</v>
+      </c>
+      <c r="E43">
+        <v>0.00201208754654633</v>
+      </c>
+      <c r="F43">
+        <v>-0.0170381910473063</v>
+      </c>
+      <c r="G43">
+        <v>0.001913469541954014</v>
+      </c>
+      <c r="H43">
+        <v>-0.05591955607975849</v>
+      </c>
+      <c r="I43">
+        <v>-0.008795396267111377</v>
+      </c>
+      <c r="J43">
+        <v>-0.01402954085769845</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.09196757132973546</v>
+        <v>-0.09512542537547354</v>
       </c>
       <c r="C44">
-        <v>0.01631364515414277</v>
+        <v>-0.05015548218201601</v>
       </c>
       <c r="D44">
-        <v>-0.05711071311411759</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0236506394791081</v>
+      </c>
+      <c r="E44">
+        <v>-0.02894061221184974</v>
+      </c>
+      <c r="F44">
+        <v>-0.1322394096281966</v>
+      </c>
+      <c r="G44">
+        <v>-0.0691174641480751</v>
+      </c>
+      <c r="H44">
+        <v>-0.03735964942963295</v>
+      </c>
+      <c r="I44">
+        <v>-0.1262298226274642</v>
+      </c>
+      <c r="J44">
+        <v>-0.04282846649124869</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +2131,220 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02975231415403058</v>
+        <v>-0.0441151557925824</v>
       </c>
       <c r="C46">
-        <v>0.0232095976361488</v>
+        <v>-0.02435245743059971</v>
       </c>
       <c r="D46">
-        <v>-0.03295312842074837</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03517296299117766</v>
+      </c>
+      <c r="E46">
+        <v>-0.01407531518073964</v>
+      </c>
+      <c r="F46">
+        <v>-0.03706773628067082</v>
+      </c>
+      <c r="G46">
+        <v>-0.000512733178160659</v>
+      </c>
+      <c r="H46">
+        <v>-0.01815251800745258</v>
+      </c>
+      <c r="I46">
+        <v>-0.009744403868715683</v>
+      </c>
+      <c r="J46">
+        <v>0.02743433660827053</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.03746682675783954</v>
+        <v>-0.04747588544018822</v>
       </c>
       <c r="C47">
-        <v>0.02375201344320153</v>
+        <v>-0.002394628428944796</v>
       </c>
       <c r="D47">
-        <v>0.003786516027245453</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0217399585986422</v>
+      </c>
+      <c r="E47">
+        <v>-0.0339252916946053</v>
+      </c>
+      <c r="F47">
+        <v>-0.01565877052263507</v>
+      </c>
+      <c r="G47">
+        <v>0.01666582721287213</v>
+      </c>
+      <c r="H47">
+        <v>-0.01985886476773932</v>
+      </c>
+      <c r="I47">
+        <v>-0.02905036618365319</v>
+      </c>
+      <c r="J47">
+        <v>0.03721733994605348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04525659501695949</v>
+        <v>-0.04361653246965018</v>
       </c>
       <c r="C48">
-        <v>0.02275540488513473</v>
+        <v>-0.01587924016294286</v>
       </c>
       <c r="D48">
-        <v>-0.03180809001164957</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01745629597606149</v>
+      </c>
+      <c r="E48">
+        <v>-0.04057986173350587</v>
+      </c>
+      <c r="F48">
+        <v>-0.02999576948720745</v>
+      </c>
+      <c r="G48">
+        <v>-0.01051539411801651</v>
+      </c>
+      <c r="H48">
+        <v>-0.006079004155618033</v>
+      </c>
+      <c r="I48">
+        <v>-0.05090624757051422</v>
+      </c>
+      <c r="J48">
+        <v>0.0103134296409344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.1495787690381368</v>
+        <v>-0.2010358664682642</v>
       </c>
       <c r="C49">
-        <v>0.05244862537770364</v>
+        <v>-0.002340583903059766</v>
       </c>
       <c r="D49">
-        <v>-0.009904122818837889</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.05213450313551328</v>
+      </c>
+      <c r="E49">
+        <v>0.174925855486866</v>
+      </c>
+      <c r="F49">
+        <v>0.08671922107888998</v>
+      </c>
+      <c r="G49">
+        <v>0.1416238908793328</v>
+      </c>
+      <c r="H49">
+        <v>0.1804881256909558</v>
+      </c>
+      <c r="I49">
+        <v>0.09085109337588669</v>
+      </c>
+      <c r="J49">
+        <v>0.02174007282592307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05402480218763031</v>
+        <v>-0.05239590745643636</v>
       </c>
       <c r="C50">
-        <v>0.03707783824790253</v>
+        <v>-0.0257002972548398</v>
       </c>
       <c r="D50">
-        <v>-0.03234881554582498</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03767530797567548</v>
+      </c>
+      <c r="E50">
+        <v>-0.02522175353154483</v>
+      </c>
+      <c r="F50">
+        <v>-0.01565854736163073</v>
+      </c>
+      <c r="G50">
+        <v>-0.02282163359256241</v>
+      </c>
+      <c r="H50">
+        <v>-0.06746615412360936</v>
+      </c>
+      <c r="I50">
+        <v>-0.02707974921733238</v>
+      </c>
+      <c r="J50">
+        <v>0.0385351712721167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03265950504531216</v>
+        <v>-0.03999508479956039</v>
       </c>
       <c r="C51">
-        <v>-0.002988560554928631</v>
+        <v>0.002828344284525323</v>
       </c>
       <c r="D51">
-        <v>0.007953490923072324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01291254109046249</v>
+      </c>
+      <c r="E51">
+        <v>0.01750920727088044</v>
+      </c>
+      <c r="F51">
+        <v>-0.007157242861304508</v>
+      </c>
+      <c r="G51">
+        <v>0.02661292910460778</v>
+      </c>
+      <c r="H51">
+        <v>0.01338626144856802</v>
+      </c>
+      <c r="I51">
+        <v>0.01300877054635708</v>
+      </c>
+      <c r="J51">
+        <v>-0.03786117027702585</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2355,156 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1521632313540043</v>
+        <v>-0.1571247037145318</v>
       </c>
       <c r="C53">
-        <v>0.07652526411695712</v>
+        <v>-0.004807327755408031</v>
       </c>
       <c r="D53">
-        <v>0.01287579973138823</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05364784462770318</v>
+      </c>
+      <c r="E53">
+        <v>0.03154035888472873</v>
+      </c>
+      <c r="F53">
+        <v>0.02323450911215998</v>
+      </c>
+      <c r="G53">
+        <v>-0.001932858746510488</v>
+      </c>
+      <c r="H53">
+        <v>-0.2248800256137753</v>
+      </c>
+      <c r="I53">
+        <v>0.08274849290708461</v>
+      </c>
+      <c r="J53">
+        <v>0.04083849565417382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.06410788943926397</v>
+        <v>-0.06322192894252569</v>
       </c>
       <c r="C54">
-        <v>0.02354603861200975</v>
+        <v>-0.006301601104999187</v>
       </c>
       <c r="D54">
-        <v>-0.02412782140917947</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02200723893931966</v>
+      </c>
+      <c r="E54">
+        <v>-0.04768569317787281</v>
+      </c>
+      <c r="F54">
+        <v>-0.05887166234893191</v>
+      </c>
+      <c r="G54">
+        <v>-0.05083271107650002</v>
+      </c>
+      <c r="H54">
+        <v>-0.03265351646930667</v>
+      </c>
+      <c r="I54">
+        <v>-0.134500978338993</v>
+      </c>
+      <c r="J54">
+        <v>0.0287642067871783</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.0938018381121733</v>
+        <v>-0.09708375226588462</v>
       </c>
       <c r="C55">
-        <v>0.04951394126159137</v>
+        <v>-0.01616716052076073</v>
       </c>
       <c r="D55">
-        <v>-0.008200773690359393</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0395974648441681</v>
+      </c>
+      <c r="E55">
+        <v>0.01392361935391862</v>
+      </c>
+      <c r="F55">
+        <v>-0.01714417478452472</v>
+      </c>
+      <c r="G55">
+        <v>-0.03903344430109106</v>
+      </c>
+      <c r="H55">
+        <v>-0.1660010978655233</v>
+      </c>
+      <c r="I55">
+        <v>0.0245428157561119</v>
+      </c>
+      <c r="J55">
+        <v>0.03859162217173345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1432764654776242</v>
+        <v>-0.149857639482528</v>
       </c>
       <c r="C56">
-        <v>0.08806061149695085</v>
+        <v>-0.01972310625501342</v>
       </c>
       <c r="D56">
-        <v>0.006046608415152075</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.06808999370818319</v>
+      </c>
+      <c r="E56">
+        <v>0.02723682158034626</v>
+      </c>
+      <c r="F56">
+        <v>-0.001402550462012709</v>
+      </c>
+      <c r="G56">
+        <v>-0.02790872646640794</v>
+      </c>
+      <c r="H56">
+        <v>-0.2135326717471903</v>
+      </c>
+      <c r="I56">
+        <v>0.09980976787439795</v>
+      </c>
+      <c r="J56">
+        <v>-0.001001016932767267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2515,1244 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1212346563704046</v>
+        <v>-0.08455391045570182</v>
       </c>
       <c r="C58">
-        <v>-0.05120265315911666</v>
+        <v>-0.06041422418176865</v>
       </c>
       <c r="D58">
-        <v>-0.05640899716161728</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0695674696812492</v>
+      </c>
+      <c r="E58">
+        <v>-0.0788046031617979</v>
+      </c>
+      <c r="F58">
+        <v>-0.1039786834925667</v>
+      </c>
+      <c r="G58">
+        <v>0.1136682481166704</v>
+      </c>
+      <c r="H58">
+        <v>0.2136736545504407</v>
+      </c>
+      <c r="I58">
+        <v>-0.5099125330739602</v>
+      </c>
+      <c r="J58">
+        <v>-0.01164596474935987</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1267633377243302</v>
+        <v>-0.1621861410346339</v>
       </c>
       <c r="C59">
-        <v>0.08267555493740666</v>
+        <v>0.3592423191918837</v>
       </c>
       <c r="D59">
-        <v>0.4344766106834319</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.07151279455237024</v>
+      </c>
+      <c r="E59">
+        <v>0.001493992609839615</v>
+      </c>
+      <c r="F59">
+        <v>-0.003691544121852771</v>
+      </c>
+      <c r="G59">
+        <v>-0.01136047948147248</v>
+      </c>
+      <c r="H59">
+        <v>-0.03036352676333803</v>
+      </c>
+      <c r="I59">
+        <v>0.04095329878944638</v>
+      </c>
+      <c r="J59">
+        <v>-0.07484245545309931</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.209624132519441</v>
+        <v>-0.2419105863743218</v>
       </c>
       <c r="C60">
-        <v>0.08195332433707211</v>
+        <v>-0.01676402417415062</v>
       </c>
       <c r="D60">
-        <v>0.01170728334718955</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.06109101054895739</v>
+      </c>
+      <c r="E60">
+        <v>0.1328386673233585</v>
+      </c>
+      <c r="F60">
+        <v>0.03222339350888254</v>
+      </c>
+      <c r="G60">
+        <v>0.02770812052061662</v>
+      </c>
+      <c r="H60">
+        <v>0.1203358168734156</v>
+      </c>
+      <c r="I60">
+        <v>0.1348561039626039</v>
+      </c>
+      <c r="J60">
+        <v>0.1000293555792725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.07638654212429816</v>
+        <v>-0.08703756844444117</v>
       </c>
       <c r="C61">
-        <v>0.05060317516120393</v>
+        <v>-0.02623914976789135</v>
       </c>
       <c r="D61">
-        <v>-0.0323625022674069</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05410778618932231</v>
+      </c>
+      <c r="E61">
+        <v>0.002891533688493277</v>
+      </c>
+      <c r="F61">
+        <v>-0.02517091802858472</v>
+      </c>
+      <c r="G61">
+        <v>-0.04937538696701987</v>
+      </c>
+      <c r="H61">
+        <v>-0.05554784937700843</v>
+      </c>
+      <c r="I61">
+        <v>-0.05034135434117386</v>
+      </c>
+      <c r="J61">
+        <v>-0.06548426852983645</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1494972453341582</v>
+        <v>-0.147613196074953</v>
       </c>
       <c r="C62">
-        <v>0.04830194521699242</v>
+        <v>-0.02887774573748463</v>
       </c>
       <c r="D62">
-        <v>0.01595712961713344</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03046153437395186</v>
+      </c>
+      <c r="E62">
+        <v>0.02263651469320341</v>
+      </c>
+      <c r="F62">
+        <v>0.04560605292936513</v>
+      </c>
+      <c r="G62">
+        <v>-0.05356375812237188</v>
+      </c>
+      <c r="H62">
+        <v>-0.205308386896642</v>
+      </c>
+      <c r="I62">
+        <v>0.105297649876239</v>
+      </c>
+      <c r="J62">
+        <v>0.05919206342975411</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.05751233537879905</v>
+        <v>-0.05228193756277812</v>
       </c>
       <c r="C63">
-        <v>0.01084780473604246</v>
+        <v>-0.02086788440199234</v>
       </c>
       <c r="D63">
-        <v>-0.03082042841636409</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01284794072606068</v>
+      </c>
+      <c r="E63">
+        <v>-0.01931475039802535</v>
+      </c>
+      <c r="F63">
+        <v>-0.0157103725100441</v>
+      </c>
+      <c r="G63">
+        <v>-0.05202842128466446</v>
+      </c>
+      <c r="H63">
+        <v>-0.02140877156249686</v>
+      </c>
+      <c r="I63">
+        <v>-0.03767211341842099</v>
+      </c>
+      <c r="J63">
+        <v>0.03547432419665053</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09839735421740646</v>
+        <v>-0.1077642721284558</v>
       </c>
       <c r="C64">
-        <v>0.03547732851069645</v>
+        <v>-0.01486726167560452</v>
       </c>
       <c r="D64">
-        <v>-0.02120450874335907</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03423024090732031</v>
+      </c>
+      <c r="E64">
+        <v>0.004854215967637071</v>
+      </c>
+      <c r="F64">
+        <v>-0.05707100558724919</v>
+      </c>
+      <c r="G64">
+        <v>-0.04635940885551751</v>
+      </c>
+      <c r="H64">
+        <v>0.01084490528516792</v>
+      </c>
+      <c r="I64">
+        <v>-0.05642256140903631</v>
+      </c>
+      <c r="J64">
+        <v>-0.01382531072076186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.124451288476931</v>
+        <v>-0.1332070869930792</v>
       </c>
       <c r="C65">
-        <v>0.04097356375754531</v>
+        <v>-0.002004966679141364</v>
       </c>
       <c r="D65">
-        <v>-0.02965536516629032</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03485015031453848</v>
+      </c>
+      <c r="E65">
+        <v>0.01381550964119446</v>
+      </c>
+      <c r="F65">
+        <v>-0.01716500826535805</v>
+      </c>
+      <c r="G65">
+        <v>-0.06345021326089387</v>
+      </c>
+      <c r="H65">
+        <v>0.2219237721650929</v>
+      </c>
+      <c r="I65">
+        <v>0.01558981875065551</v>
+      </c>
+      <c r="J65">
+        <v>0.6416775484986623</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1542897673135203</v>
+        <v>-0.1485202001294868</v>
       </c>
       <c r="C66">
-        <v>0.07329559349454129</v>
+        <v>-0.08124354933028106</v>
       </c>
       <c r="D66">
-        <v>-0.08646937866572432</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08232379012234775</v>
+      </c>
+      <c r="E66">
+        <v>0.008329434108983859</v>
+      </c>
+      <c r="F66">
+        <v>-0.01438498981261356</v>
+      </c>
+      <c r="G66">
+        <v>-0.08701924107143322</v>
+      </c>
+      <c r="H66">
+        <v>-0.04780747899788961</v>
+      </c>
+      <c r="I66">
+        <v>-0.1381080268369693</v>
+      </c>
+      <c r="J66">
+        <v>-0.185966131255849</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.0958611380947909</v>
+        <v>-0.09905996395441961</v>
       </c>
       <c r="C67">
-        <v>0.008352541493985118</v>
+        <v>-0.03325318752652464</v>
       </c>
       <c r="D67">
-        <v>0.00021443810707263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.003968249699392713</v>
+      </c>
+      <c r="E67">
+        <v>0.01356353055341917</v>
+      </c>
+      <c r="F67">
+        <v>-0.007595488248150637</v>
+      </c>
+      <c r="G67">
+        <v>0.0133403975003577</v>
+      </c>
+      <c r="H67">
+        <v>-0.01435103334375307</v>
+      </c>
+      <c r="I67">
+        <v>0.04137201086566464</v>
+      </c>
+      <c r="J67">
+        <v>-0.05919956065940184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.04466042528533044</v>
+        <v>-0.07454996887246906</v>
       </c>
       <c r="C68">
-        <v>0.04877060609956272</v>
+        <v>0.2790325456932964</v>
       </c>
       <c r="D68">
-        <v>0.2539376656982651</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.04412451887577364</v>
+      </c>
+      <c r="E68">
+        <v>-0.02930336193008453</v>
+      </c>
+      <c r="F68">
+        <v>-0.03936668457901346</v>
+      </c>
+      <c r="G68">
+        <v>0.003712118792273818</v>
+      </c>
+      <c r="H68">
+        <v>-0.02275454046211925</v>
+      </c>
+      <c r="I68">
+        <v>-0.01923678552044442</v>
+      </c>
+      <c r="J68">
+        <v>0.03707399755336526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06751758450979738</v>
+        <v>-0.05782558719319607</v>
       </c>
       <c r="C69">
-        <v>0.02151866217112213</v>
+        <v>-0.01725326992748616</v>
       </c>
       <c r="D69">
-        <v>-0.01607870112283276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009829078750796704</v>
+      </c>
+      <c r="E69">
+        <v>-0.02388192478435888</v>
+      </c>
+      <c r="F69">
+        <v>0.001080388538699479</v>
+      </c>
+      <c r="G69">
+        <v>-0.002117687026731376</v>
+      </c>
+      <c r="H69">
+        <v>-0.03387956563015664</v>
+      </c>
+      <c r="I69">
+        <v>-0.008887008161216334</v>
+      </c>
+      <c r="J69">
+        <v>-0.0002120963384077179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.01112221114594425</v>
+        <v>-0.03413491411564054</v>
       </c>
       <c r="C70">
-        <v>0.003065619051797586</v>
+        <v>0.0004253664786065834</v>
       </c>
       <c r="D70">
-        <v>0.00744851146558812</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.002710557112543659</v>
+      </c>
+      <c r="E70">
+        <v>0.02974808290505737</v>
+      </c>
+      <c r="F70">
+        <v>0.02430783200439763</v>
+      </c>
+      <c r="G70">
+        <v>0.007471302016899305</v>
+      </c>
+      <c r="H70">
+        <v>0.0404258645015649</v>
+      </c>
+      <c r="I70">
+        <v>-0.01507841278130083</v>
+      </c>
+      <c r="J70">
+        <v>-0.0457848006713674</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.04054791499319389</v>
+        <v>-0.08065238267653306</v>
       </c>
       <c r="C71">
-        <v>0.04535164121274381</v>
+        <v>0.2988650253439818</v>
       </c>
       <c r="D71">
-        <v>0.2854601700257167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.04844091718772325</v>
+      </c>
+      <c r="E71">
+        <v>-0.01052130464697639</v>
+      </c>
+      <c r="F71">
+        <v>-0.05541805353575509</v>
+      </c>
+      <c r="G71">
+        <v>-0.002596528432827636</v>
+      </c>
+      <c r="H71">
+        <v>-0.02353209278872578</v>
+      </c>
+      <c r="I71">
+        <v>-0.02148648447265519</v>
+      </c>
+      <c r="J71">
+        <v>0.01364379599137043</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1427001948698355</v>
+        <v>-0.1368150476137223</v>
       </c>
       <c r="C72">
-        <v>0.04021664780754233</v>
+        <v>0.003708764140318903</v>
       </c>
       <c r="D72">
-        <v>0.0365270669396127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.004005440852082186</v>
+      </c>
+      <c r="E72">
+        <v>-0.07312637519079923</v>
+      </c>
+      <c r="F72">
+        <v>0.1534916353730313</v>
+      </c>
+      <c r="G72">
+        <v>-0.1241316246684551</v>
+      </c>
+      <c r="H72">
+        <v>-0.008643899428629772</v>
+      </c>
+      <c r="I72">
+        <v>0.02945291077789127</v>
+      </c>
+      <c r="J72">
+        <v>0.1296116817795888</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2683843364532845</v>
+        <v>-0.2644236879331371</v>
       </c>
       <c r="C73">
-        <v>0.07458116883216721</v>
+        <v>-0.08543552541074054</v>
       </c>
       <c r="D73">
-        <v>-0.04301385436900922</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.04258086632994125</v>
+      </c>
+      <c r="E73">
+        <v>0.3005476232464227</v>
+      </c>
+      <c r="F73">
+        <v>0.1379821791428395</v>
+      </c>
+      <c r="G73">
+        <v>0.2219331916127798</v>
+      </c>
+      <c r="H73">
+        <v>0.2670257689573199</v>
+      </c>
+      <c r="I73">
+        <v>0.08504150131271263</v>
+      </c>
+      <c r="J73">
+        <v>-0.1723839188374879</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.08116829086032118</v>
+        <v>-0.09013543887609259</v>
       </c>
       <c r="C74">
-        <v>0.07019102300379075</v>
+        <v>-0.01638315988299941</v>
       </c>
       <c r="D74">
-        <v>-0.002804657780307759</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.06075629481896659</v>
+      </c>
+      <c r="E74">
+        <v>0.01136121332890241</v>
+      </c>
+      <c r="F74">
+        <v>0.009271619572968402</v>
+      </c>
+      <c r="G74">
+        <v>0.01874630042357326</v>
+      </c>
+      <c r="H74">
+        <v>-0.1370723160290966</v>
+      </c>
+      <c r="I74">
+        <v>0.01127822944473577</v>
+      </c>
+      <c r="J74">
+        <v>0.01281190527685277</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.1118007027469238</v>
+        <v>-0.1034861808475395</v>
       </c>
       <c r="C75">
-        <v>0.03604680313621259</v>
+        <v>-0.02322617494372523</v>
       </c>
       <c r="D75">
-        <v>-0.001232818349180907</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01310093423332019</v>
+      </c>
+      <c r="E75">
+        <v>-0.002004057323260322</v>
+      </c>
+      <c r="F75">
+        <v>0.004446804195841463</v>
+      </c>
+      <c r="G75">
+        <v>-0.002577202824458841</v>
+      </c>
+      <c r="H75">
+        <v>-0.1136005394935931</v>
+      </c>
+      <c r="I75">
+        <v>0.05480166250326231</v>
+      </c>
+      <c r="J75">
+        <v>0.0115526642506724</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1333169510294508</v>
+        <v>-0.132964868519465</v>
       </c>
       <c r="C76">
-        <v>0.08110440218968783</v>
+        <v>-0.03946662470650718</v>
       </c>
       <c r="D76">
-        <v>-0.02691964881654568</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07560243663639729</v>
+      </c>
+      <c r="E76">
+        <v>0.01875159093403478</v>
+      </c>
+      <c r="F76">
+        <v>-0.01529703324490583</v>
+      </c>
+      <c r="G76">
+        <v>-0.03960757854938136</v>
+      </c>
+      <c r="H76">
+        <v>-0.2652303909490319</v>
+      </c>
+      <c r="I76">
+        <v>0.07748153984220547</v>
+      </c>
+      <c r="J76">
+        <v>0.02059441296820556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1330195422308041</v>
+        <v>-0.09876277364360703</v>
       </c>
       <c r="C77">
-        <v>-0.02842393767816415</v>
+        <v>-0.05876118285821307</v>
       </c>
       <c r="D77">
-        <v>-0.07073362196008769</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05105247308864889</v>
+      </c>
+      <c r="E77">
+        <v>-0.1079982604424616</v>
+      </c>
+      <c r="F77">
+        <v>-0.1556891851603966</v>
+      </c>
+      <c r="G77">
+        <v>-0.7126504448475648</v>
+      </c>
+      <c r="H77">
+        <v>0.3490744670185041</v>
+      </c>
+      <c r="I77">
+        <v>0.3483148945423728</v>
+      </c>
+      <c r="J77">
+        <v>-0.2614094427649672</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.1134914081504163</v>
+        <v>-0.1586417296638719</v>
       </c>
       <c r="C78">
-        <v>0.03204434716011887</v>
+        <v>-0.05718523534880223</v>
       </c>
       <c r="D78">
-        <v>-0.07812978119922616</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0622231399849062</v>
+      </c>
+      <c r="E78">
+        <v>-0.07506072809047953</v>
+      </c>
+      <c r="F78">
+        <v>-0.1219887199420941</v>
+      </c>
+      <c r="G78">
+        <v>0.03091038047792278</v>
+      </c>
+      <c r="H78">
+        <v>0.1326791176483498</v>
+      </c>
+      <c r="I78">
+        <v>-0.01722357727918029</v>
+      </c>
+      <c r="J78">
+        <v>0.1235568836973508</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1456357038137022</v>
+        <v>-0.1447901092285391</v>
       </c>
       <c r="C79">
-        <v>0.05297862228577805</v>
+        <v>-0.03464914317494092</v>
       </c>
       <c r="D79">
-        <v>-0.02551562224962555</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03759712329718122</v>
+      </c>
+      <c r="E79">
+        <v>0.02247913794525713</v>
+      </c>
+      <c r="F79">
+        <v>0.003592025452171444</v>
+      </c>
+      <c r="G79">
+        <v>-0.05626018855153546</v>
+      </c>
+      <c r="H79">
+        <v>-0.1847044347284237</v>
+      </c>
+      <c r="I79">
+        <v>0.08468768502538014</v>
+      </c>
+      <c r="J79">
+        <v>0.05436967930442233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.03854098513720907</v>
+        <v>-0.04287985673631092</v>
       </c>
       <c r="C80">
-        <v>0.01309605637953015</v>
+        <v>-0.00918166542855021</v>
       </c>
       <c r="D80">
-        <v>-0.02080223813817334</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01499666888698644</v>
+      </c>
+      <c r="E80">
+        <v>0.05258849103202285</v>
+      </c>
+      <c r="F80">
+        <v>0.02197978825567667</v>
+      </c>
+      <c r="G80">
+        <v>-0.008701242982591739</v>
+      </c>
+      <c r="H80">
+        <v>0.007240047244116607</v>
+      </c>
+      <c r="I80">
+        <v>-0.1030200991350825</v>
+      </c>
+      <c r="J80">
+        <v>0.03690468964131303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1286073500668382</v>
+        <v>-0.1276449971270668</v>
       </c>
       <c r="C81">
-        <v>0.06826043314053536</v>
+        <v>-0.01478451468732339</v>
       </c>
       <c r="D81">
-        <v>-0.009798055207019998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04988147757755415</v>
+      </c>
+      <c r="E81">
+        <v>0.01615514603366084</v>
+      </c>
+      <c r="F81">
+        <v>-0.007949766725089617</v>
+      </c>
+      <c r="G81">
+        <v>-0.0268834101668438</v>
+      </c>
+      <c r="H81">
+        <v>-0.1473393860107498</v>
+      </c>
+      <c r="I81">
+        <v>0.01466172055037803</v>
+      </c>
+      <c r="J81">
+        <v>-0.02219643898054082</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1212332812849235</v>
+        <v>-0.1202531363390711</v>
       </c>
       <c r="C82">
-        <v>0.05171520798129196</v>
+        <v>-0.02339633924895364</v>
       </c>
       <c r="D82">
-        <v>-0.017331451564188</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04128413793468556</v>
+      </c>
+      <c r="E82">
+        <v>0.03462789851030448</v>
+      </c>
+      <c r="F82">
+        <v>-0.008505259238413351</v>
+      </c>
+      <c r="G82">
+        <v>-0.005977157624298096</v>
+      </c>
+      <c r="H82">
+        <v>-0.2607662665112133</v>
+      </c>
+      <c r="I82">
+        <v>0.07338711286223053</v>
+      </c>
+      <c r="J82">
+        <v>-0.03084809955957091</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.0531261666840045</v>
+        <v>-0.0746480062304698</v>
       </c>
       <c r="C83">
-        <v>-0.03767995377564291</v>
+        <v>-0.03125932106335917</v>
       </c>
       <c r="D83">
-        <v>-0.0006145622208443428</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03264550320413671</v>
+      </c>
+      <c r="E83">
+        <v>0.04950201039043832</v>
+      </c>
+      <c r="F83">
+        <v>-0.003478467909911464</v>
+      </c>
+      <c r="G83">
+        <v>0.05735102118835771</v>
+      </c>
+      <c r="H83">
+        <v>0.06553336134284594</v>
+      </c>
+      <c r="I83">
+        <v>-0.07159640712398591</v>
+      </c>
+      <c r="J83">
+        <v>-0.0393457599780053</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.04271655336638917</v>
+        <v>-0.03526548138866008</v>
       </c>
       <c r="C84">
-        <v>0.026622008347334</v>
+        <v>-0.03644128687965452</v>
       </c>
       <c r="D84">
-        <v>-0.03146541518778343</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02706528765488833</v>
+      </c>
+      <c r="E84">
+        <v>-0.04536557586051147</v>
+      </c>
+      <c r="F84">
+        <v>0.02098927362899378</v>
+      </c>
+      <c r="G84">
+        <v>0.03537712430763523</v>
+      </c>
+      <c r="H84">
+        <v>-0.04020166184725679</v>
+      </c>
+      <c r="I84">
+        <v>-0.1061241711090047</v>
+      </c>
+      <c r="J84">
+        <v>-0.003645245874952077</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1153679362922587</v>
+        <v>-0.1221949239793871</v>
       </c>
       <c r="C85">
-        <v>0.03036405948743753</v>
+        <v>-0.03252981856529994</v>
       </c>
       <c r="D85">
-        <v>-0.03322648475775943</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02495342963396147</v>
+      </c>
+      <c r="E85">
+        <v>0.01935395413250213</v>
+      </c>
+      <c r="F85">
+        <v>-0.03609057144032005</v>
+      </c>
+      <c r="G85">
+        <v>-0.02593461412227517</v>
+      </c>
+      <c r="H85">
+        <v>-0.182854422553146</v>
+      </c>
+      <c r="I85">
+        <v>0.05587919698659805</v>
+      </c>
+      <c r="J85">
+        <v>0.06046155916851523</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06471909854951187</v>
+        <v>-0.06025337574106447</v>
       </c>
       <c r="C86">
-        <v>0.01615043076574295</v>
+        <v>-0.03084375366363964</v>
       </c>
       <c r="D86">
-        <v>-0.06354946758168875</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01423483500358821</v>
+      </c>
+      <c r="E86">
+        <v>-0.02127556379792708</v>
+      </c>
+      <c r="F86">
+        <v>-0.0403239469181987</v>
+      </c>
+      <c r="G86">
+        <v>0.01204081764939765</v>
+      </c>
+      <c r="H86">
+        <v>0.05344305737405163</v>
+      </c>
+      <c r="I86">
+        <v>0.05335314749542195</v>
+      </c>
+      <c r="J86">
+        <v>0.03692499493284431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1227331825293485</v>
+        <v>-0.1278098868294197</v>
       </c>
       <c r="C87">
-        <v>0.07145739626789699</v>
+        <v>-0.06062976246635552</v>
       </c>
       <c r="D87">
-        <v>-0.0882544640728051</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07059843627689746</v>
+      </c>
+      <c r="E87">
+        <v>-0.0536349351735717</v>
+      </c>
+      <c r="F87">
+        <v>-0.06545242415903842</v>
+      </c>
+      <c r="G87">
+        <v>-0.1536489631790425</v>
+      </c>
+      <c r="H87">
+        <v>0.09605231112536537</v>
+      </c>
+      <c r="I87">
+        <v>0.01035274185168557</v>
+      </c>
+      <c r="J87">
+        <v>-0.01414992584507879</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.05901036611959786</v>
+        <v>-0.06442569879709711</v>
       </c>
       <c r="C88">
-        <v>0.02953592551114774</v>
+        <v>-0.03442196254285967</v>
       </c>
       <c r="D88">
-        <v>-0.03185101068317713</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03617254215761898</v>
+      </c>
+      <c r="E88">
+        <v>0.02024130612110411</v>
+      </c>
+      <c r="F88">
+        <v>-0.00738435418369132</v>
+      </c>
+      <c r="G88">
+        <v>-0.02323318570959149</v>
+      </c>
+      <c r="H88">
+        <v>-0.03090084351208107</v>
+      </c>
+      <c r="I88">
+        <v>-0.03891261370516435</v>
+      </c>
+      <c r="J88">
+        <v>-0.0180318469726919</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.06707310328187814</v>
+        <v>-0.1268959680601271</v>
       </c>
       <c r="C89">
-        <v>0.07816829426115612</v>
+        <v>0.3764239614388434</v>
       </c>
       <c r="D89">
-        <v>0.3143326251061676</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.03880910639796691</v>
+      </c>
+      <c r="E89">
+        <v>0.005911768373261639</v>
+      </c>
+      <c r="F89">
+        <v>-0.09676657340072113</v>
+      </c>
+      <c r="G89">
+        <v>0.01682731510344401</v>
+      </c>
+      <c r="H89">
+        <v>-0.004695435947460498</v>
+      </c>
+      <c r="I89">
+        <v>-0.07920950863988278</v>
+      </c>
+      <c r="J89">
+        <v>-0.06335435746196647</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.06059936203223912</v>
+        <v>-0.09243046146919877</v>
       </c>
       <c r="C90">
-        <v>0.04142721011063868</v>
+        <v>0.2799657054386877</v>
       </c>
       <c r="D90">
-        <v>0.2827553460494809</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.05539342355568775</v>
+      </c>
+      <c r="E90">
+        <v>-0.008050951063668271</v>
+      </c>
+      <c r="F90">
+        <v>-0.04739284891580302</v>
+      </c>
+      <c r="G90">
+        <v>-0.01820839617103561</v>
+      </c>
+      <c r="H90">
+        <v>0.02897662261202792</v>
+      </c>
+      <c r="I90">
+        <v>-0.08982147347485324</v>
+      </c>
+      <c r="J90">
+        <v>-0.03613578993304075</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.1006849819682973</v>
+        <v>-0.09208135129561469</v>
       </c>
       <c r="C91">
-        <v>0.04468618958604077</v>
+        <v>-0.02463793809413013</v>
       </c>
       <c r="D91">
-        <v>-0.0074037221112585</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02659937908451325</v>
+      </c>
+      <c r="E91">
+        <v>0.0053118737351588</v>
+      </c>
+      <c r="F91">
+        <v>0.004251811861940784</v>
+      </c>
+      <c r="G91">
+        <v>0.007027216497544605</v>
+      </c>
+      <c r="H91">
+        <v>-0.07729047004169753</v>
+      </c>
+      <c r="I91">
+        <v>0.0366168905917676</v>
+      </c>
+      <c r="J91">
+        <v>-0.008036830012240877</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.05254321995238621</v>
+        <v>-0.09346814710236111</v>
       </c>
       <c r="C92">
-        <v>0.06261701416264819</v>
+        <v>0.3322764148439704</v>
       </c>
       <c r="D92">
-        <v>0.3272726579863727</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.05074762206198252</v>
+      </c>
+      <c r="E92">
+        <v>-0.01217131369095924</v>
+      </c>
+      <c r="F92">
+        <v>-0.05922080463438276</v>
+      </c>
+      <c r="G92">
+        <v>-0.003562233926396376</v>
+      </c>
+      <c r="H92">
+        <v>-0.01718517736807576</v>
+      </c>
+      <c r="I92">
+        <v>-0.02516481615603632</v>
+      </c>
+      <c r="J92">
+        <v>-0.02030552413566997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.04611683442430525</v>
+        <v>-0.09214387830741583</v>
       </c>
       <c r="C93">
-        <v>0.0587405057998831</v>
+        <v>0.3179236979286824</v>
       </c>
       <c r="D93">
-        <v>0.3036190581625632</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.04350074508385041</v>
+      </c>
+      <c r="E93">
+        <v>0.00730515646991236</v>
+      </c>
+      <c r="F93">
+        <v>-0.03119005240241981</v>
+      </c>
+      <c r="G93">
+        <v>-0.003621191025153794</v>
+      </c>
+      <c r="H93">
+        <v>0.007611679030542048</v>
+      </c>
+      <c r="I93">
+        <v>-0.01858712854106769</v>
+      </c>
+      <c r="J93">
+        <v>0.005180045959763123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.1242086739685081</v>
+        <v>-0.1237530285439371</v>
       </c>
       <c r="C94">
-        <v>0.01945739774374788</v>
+        <v>-0.04922422280814245</v>
       </c>
       <c r="D94">
-        <v>-0.05037832669637575</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01338608707660858</v>
+      </c>
+      <c r="E94">
+        <v>0.00765730615909641</v>
+      </c>
+      <c r="F94">
+        <v>-0.02335183704547051</v>
+      </c>
+      <c r="G94">
+        <v>0.04733075057013134</v>
+      </c>
+      <c r="H94">
+        <v>-0.111986596124832</v>
+      </c>
+      <c r="I94">
+        <v>0.04524760710320167</v>
+      </c>
+      <c r="J94">
+        <v>0.01797415798564544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1314654726975125</v>
+        <v>-0.1410192271520956</v>
       </c>
       <c r="C95">
-        <v>0.02013981235509561</v>
+        <v>-0.06379544643920314</v>
       </c>
       <c r="D95">
-        <v>-0.08349217484875973</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01888580258938227</v>
+      </c>
+      <c r="E95">
+        <v>0.008219469895711075</v>
+      </c>
+      <c r="F95">
+        <v>-0.04923523399854535</v>
+      </c>
+      <c r="G95">
+        <v>-0.01701722888671213</v>
+      </c>
+      <c r="H95">
+        <v>0.1415222284890233</v>
+      </c>
+      <c r="I95">
+        <v>-0.06159209840859006</v>
+      </c>
+      <c r="J95">
+        <v>0.04246309831553222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3763,124 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.2403031499581274</v>
+        <v>-0.182144683782174</v>
       </c>
       <c r="C97">
-        <v>0.05789728422877867</v>
+        <v>0.03629918615788984</v>
       </c>
       <c r="D97">
-        <v>0.1288743214474185</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.05675877627512571</v>
+      </c>
+      <c r="E97">
+        <v>-0.5292517271476845</v>
+      </c>
+      <c r="F97">
+        <v>0.771344649205475</v>
+      </c>
+      <c r="G97">
+        <v>-0.07555274685469648</v>
+      </c>
+      <c r="H97">
+        <v>0.0348898728814184</v>
+      </c>
+      <c r="I97">
+        <v>-0.08942082823737775</v>
+      </c>
+      <c r="J97">
+        <v>-0.009806994016310645</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2672405803565445</v>
+        <v>-0.2827851631469999</v>
       </c>
       <c r="C98">
-        <v>0.06059331969823434</v>
+        <v>-0.06191426167407396</v>
       </c>
       <c r="D98">
-        <v>-0.02363540298164843</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.03674024006874163</v>
+      </c>
+      <c r="E98">
+        <v>0.2321675412900307</v>
+      </c>
+      <c r="F98">
+        <v>0.1760461170946621</v>
+      </c>
+      <c r="G98">
+        <v>0.2906953550744383</v>
+      </c>
+      <c r="H98">
+        <v>0.2029427576405518</v>
+      </c>
+      <c r="I98">
+        <v>0.1556062882788098</v>
+      </c>
+      <c r="J98">
+        <v>-0.2716660994999974</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.3529438603598386</v>
+        <v>-0.2077899745561217</v>
       </c>
       <c r="C99">
-        <v>-0.9104128199268275</v>
+        <v>-0.2207065554948582</v>
       </c>
       <c r="D99">
-        <v>0.09140132443066755</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.9247774629111376</v>
+      </c>
+      <c r="E99">
+        <v>0.04692486199909966</v>
+      </c>
+      <c r="F99">
+        <v>-0.07867876854879458</v>
+      </c>
+      <c r="G99">
+        <v>0.01203659635108463</v>
+      </c>
+      <c r="H99">
+        <v>-0.1077154032857283</v>
+      </c>
+      <c r="I99">
+        <v>-0.01188288143070632</v>
+      </c>
+      <c r="J99">
+        <v>0.04329675048371375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3891,60 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.05099940432687703</v>
+        <v>-0.05350888488419013</v>
       </c>
       <c r="C101">
-        <v>0.04316772873584028</v>
+        <v>-0.002361325021456635</v>
       </c>
       <c r="D101">
-        <v>-0.004750436915130233</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03802474709752509</v>
+      </c>
+      <c r="E101">
+        <v>-0.009484047273456371</v>
+      </c>
+      <c r="F101">
+        <v>-0.03580583055599017</v>
+      </c>
+      <c r="G101">
+        <v>-0.02940447951228406</v>
+      </c>
+      <c r="H101">
+        <v>-0.0716210371366733</v>
+      </c>
+      <c r="I101">
+        <v>-0.0396715563265563</v>
+      </c>
+      <c r="J101">
+        <v>0.01216647793000529</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3955,28 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3987,28 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +4017,24 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
